--- a/medicine/Soins infirmiers et profession infirmière/Résidence_Marguerite_Rousselet/Résidence_Marguerite_Rousselet.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Résidence_Marguerite_Rousselet/Résidence_Marguerite_Rousselet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9sidence_Marguerite_Rousselet</t>
+          <t>Résidence_Marguerite_Rousselet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Résidence Marguerite Rousselet est un établissement (EHPAD) implanté à Reims, en France, destiné à accueillir des personnes âgées dépendantes.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9sidence_Marguerite_Rousselet</t>
+          <t>Résidence_Marguerite_Rousselet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Résidence Marguerite Rousselet est située 7 Place Marguerite Rousselet à Reims dans la Marne en France.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9sidence_Marguerite_Rousselet</t>
+          <t>Résidence_Marguerite_Rousselet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +558,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Résidence Marguerite Rousselet est construite sur le site de l'ancien Hôpital Sébastopol de Reims, partie Maison de convalescence.
 Elle comprend deux bâtiments.
 Le bâtiment A qui a été  inauguré en 1992 et comprend sur 3 niveaux 108 chambres à 1 lit et 6 studios permettant l'accueil de couple.
-Le bâtiment B, a été ouvert en 2010 et comprend sur 2 niveaux 82 chambres à un lit. Il est l’œuvre de l’architecte Rémy Butler[1].
+Le bâtiment B, a été ouvert en 2010 et comprend sur 2 niveaux 82 chambres à un lit. Il est l’œuvre de l’architecte Rémy Butler.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9sidence_Marguerite_Rousselet</t>
+          <t>Résidence_Marguerite_Rousselet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon les historiens de Reims, Marguerite Rousselet serait une femme pieuse et charitable qui s’est occupée des scrofuleux en leur prodiguant des soins et a obtenu quelques guérisons. Son exemple a inspiré d’autres personnes qui lui apportèrent soutiens matériel et financier, qui lui permit de créer une maison de soin[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon les historiens de Reims, Marguerite Rousselet serait une femme pieuse et charitable qui s’est occupée des scrofuleux en leur prodiguant des soins et a obtenu quelques guérisons. Son exemple a inspiré d’autres personnes qui lui apportèrent soutiens matériel et financier, qui lui permit de créer une maison de soin.
 </t>
         </is>
       </c>
